--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -1,252 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragment of an Address to the Jews	</t>
+  </si>
+  <si>
     <t>請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>A100:1590</t>
+  </si>
+  <si>
     <t>登録番号</t>
   </si>
   <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
     <t>状態</t>
   </si>
   <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
     <t>出版者</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>出版年</t>
   </si>
   <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
     <t>大きさ</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>別書名</t>
   </si>
   <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
+    <t>On Zionism|Restoration of the Jews|A manuscript, written in his own hand</t>
+  </si>
+  <si>
     <t>一般注記</t>
   </si>
   <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>also known as "On Zionism" and "Restoration of the Jews"|A title of General Library's card catalog: [A manuscript, written in his own hand]</t>
+  </si>
+  <si>
     <t>著者標目</t>
   </si>
   <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>Shelley, Percy Bysshe</t>
+  </si>
+  <si>
     <t>本文言語</t>
   </si>
   <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
     <t>解説</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>e3e3be43-358d-47bf-a245-d52ffe4ed866</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shelly/document/e3e3be43-358d-47bf-a245-d52ffe4ed866</t>
+  </si>
+  <si>
     <t>利用条件</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b21f88051663fd540a6d382183349894d16b58b8.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22131</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e3e3be43-358d-47bf-a245-d52ffe4ed866/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragment of an Address to the Jews	</t>
-  </si>
-  <si>
-    <t>A100:1590</t>
-  </si>
-  <si>
-    <t>On Zionism|Restoration of the Jews|A manuscript, written in his own hand</t>
-  </si>
-  <si>
-    <t>also known as "On Zionism" and "Restoration of the Jews"|A title of General Library's card catalog: [A manuscript, written in his own hand]</t>
-  </si>
-  <si>
-    <t>Shelley, Percy Bysshe</t>
-  </si>
-  <si>
-    <t>e3e3be43-358d-47bf-a245-d52ffe4ed866</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shelly/document/e3e3be43-358d-47bf-a245-d52ffe4ed866</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b21f88051663fd540a6d382183349894d16b58b8.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22131</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e3e3be43-358d-47bf-a245-d52ffe4ed866/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -261,16 +266,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -558,267 +570,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AB2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AE2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="P3" r:id="rId1"/>
+    <hyperlink ref="Q3" r:id="rId2"/>
+    <hyperlink ref="R3" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="Z3" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -1,257 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>登録番号</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>出版者</t>
+  </si>
+  <si>
+    <t>出版年</t>
+  </si>
+  <si>
+    <t>大きさ</t>
+  </si>
+  <si>
+    <t>別書名</t>
+  </si>
+  <si>
+    <t>一般注記</t>
+  </si>
+  <si>
+    <t>著者標目</t>
+  </si>
+  <si>
+    <t>本文言語</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fragment of an Address to the Jews	</t>
   </si>
   <si>
-    <t>請求記号</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
     <t>A100:1590</t>
   </si>
   <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>出版者</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>出版年</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>大きさ</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>別書名</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
     <t>On Zionism|Restoration of the Jews|A manuscript, written in his own hand</t>
   </si>
   <si>
-    <t>一般注記</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
     <t>also known as "On Zionism" and "Restoration of the Jews"|A title of General Library's card catalog: [A manuscript, written in his own hand]</t>
   </si>
   <si>
-    <t>著者標目</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
     <t>Shelley, Percy Bysshe</t>
   </si>
   <si>
-    <t>本文言語</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>解説</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e3e3be43-358d-47bf-a245-d52ffe4ed866.json</t>
   </si>
   <si>
     <t>e3e3be43-358d-47bf-a245-d52ffe4ed866</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shelly/document/e3e3be43-358d-47bf-a245-d52ffe4ed866</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b21f88051663fd540a6d382183349894d16b58b8.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22131</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e3e3be43-358d-47bf-a245-d52ffe4ed866/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -266,23 +267,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -570,249 +564,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
         <v>49</v>
-      </c>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
       </c>
       <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
         <v>69</v>
       </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE3">
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+      <c r="Z3" t="s"/>
+      <c r="AA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s"/>
+      <c r="AF3" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1"/>
-    <hyperlink ref="Q3" r:id="rId2"/>
-    <hyperlink ref="R3" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4"/>
-    <hyperlink ref="Z3" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>タイトル</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22131</t>
+  </si>
+  <si>
+    <t>Fragment of an Address to the Jews</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e3e3be43-358d-47bf-a245-d52ffe4ed866/manifest</t>
@@ -819,11 +822,13 @@
       <c r="U3" t="s"/>
       <c r="V3" t="s"/>
       <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s"/>
       <c r="AC3" t="s"/>

--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>タイトル</t>
   </si>
@@ -200,7 +200,7 @@
     <t>uterms:rtf</t>
   </si>
   <si>
-    <t xml:space="preserve">Fragment of an Address to the Jews	</t>
+    <t>Fragment of an Address to the Jews</t>
   </si>
   <si>
     <t>A100:1590</t>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22131</t>
-  </si>
-  <si>
-    <t>Fragment of an Address to the Jews</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e3e3be43-358d-47bf-a245-d52ffe4ed866/manifest</t>
@@ -823,12 +820,12 @@
       <c r="V3" t="s"/>
       <c r="W3" t="s"/>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s"/>
       <c r="AC3" t="s"/>

--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>タイトル</t>
   </si>
@@ -234,6 +234,57 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e3e3be43-358d-47bf-a245-d52ffe4ed866/manifest</t>
+  </si>
+  <si>
+    <t>Two letters by Richard Garnett to Rinkichi Tsuchii. Letter 1</t>
+  </si>
+  <si>
+    <t>Garnett, Richard</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6f0c1352-3e7e-4bf0-90e9-eb360be55cf9.json</t>
+  </si>
+  <si>
+    <t>6f0c1352-3e7e-4bf0-90e9-eb360be55cf9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shelly/document/6f0c1352-3e7e-4bf0-90e9-eb360be55cf9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shelly/page/reuse</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0a1f57425b52b938db97ab87f5e4791ddef4deae.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22132</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/6f0c1352-3e7e-4bf0-90e9-eb360be55cf9/manifest</t>
+  </si>
+  <si>
+    <t>Two letters by Richard Garnett to Rinkichi Tsuchii. Letter 2</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b1499d0d-920a-413f-8616-66daa1c21e8f.json</t>
+  </si>
+  <si>
+    <t>b1499d0d-920a-413f-8616-66daa1c21e8f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shelly/document/b1499d0d-920a-413f-8616-66daa1c21e8f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4490ffbc84de3b218df00e8e55f729da534a6f4c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22133</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b1499d0d-920a-413f-8616-66daa1c21e8f/manifest</t>
   </si>
 </sst>
 </file>
@@ -569,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,7 +821,7 @@
         <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -835,6 +886,126 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s"/>
+      <c r="Z4" t="s"/>
+      <c r="AA4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" t="s"/>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s"/>
+      <c r="Z5" t="s"/>
+      <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
+      <c r="AD5" t="s"/>
+      <c r="AE5" t="s"/>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -821,7 +821,7 @@
         <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -883,7 +883,7 @@
       <c r="AD3" t="s"/>
       <c r="AE3" t="s"/>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:32">

--- a/docs/collections/shelly/metadata/data.xlsx
+++ b/docs/collections/shelly/metadata/data.xlsx
@@ -15,45 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
-  <si>
-    <t>タイトル</t>
-  </si>
-  <si>
-    <t>請求記号</t>
-  </si>
-  <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>出版者</t>
-  </si>
-  <si>
-    <t>出版年</t>
-  </si>
-  <si>
-    <t>大きさ</t>
-  </si>
-  <si>
-    <t>別書名</t>
-  </si>
-  <si>
-    <t>一般注記</t>
-  </si>
-  <si>
-    <t>著者標目</t>
-  </si>
-  <si>
-    <t>本文言語</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+  <si>
+    <t>タイトル/Title</t>
+  </si>
+  <si>
+    <t>請求記号/Call Number</t>
+  </si>
+  <si>
+    <t>登録番号/Registration Number</t>
+  </si>
+  <si>
+    <t>状態/Status</t>
+  </si>
+  <si>
+    <t>文庫区分/Collection</t>
+  </si>
+  <si>
+    <t>出版者/Publisher</t>
+  </si>
+  <si>
+    <t>出版年/Publication Date</t>
+  </si>
+  <si>
+    <t>大きさ/Extent</t>
+  </si>
+  <si>
+    <t>別書名/Alternative Title</t>
+  </si>
+  <si>
+    <t>一般注記/Note</t>
+  </si>
+  <si>
+    <t>著者/Author</t>
+  </si>
+  <si>
+    <t>本文言語/Language</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>解説</t>
+    <t>解説/Description</t>
   </si>
   <si>
     <t>iiif viewer</t>
@@ -122,6 +125,9 @@
     <t>dcterms:type</t>
   </si>
   <si>
+    <t>uterms:bunko</t>
+  </si>
+  <si>
     <t>dcterms:publisher</t>
   </si>
   <si>
@@ -209,7 +215,7 @@
     <t>On Zionism|Restoration of the Jews|A manuscript, written in his own hand</t>
   </si>
   <si>
-    <t>also known as "On Zionism" and "Restoration of the Jews"|A title of General Library's card catalog: [A manuscript, written in his own hand]</t>
+    <t>also known as "On Zionism" and "Restoration of the Jews"|A title of General Library's card catalog: [A manuscript, written in his own hand]|The third image is a transmitted light photograph to capture the watermark. According to Professor Nora Crook, a dolphin with the letters "ANT.FORTI C." is depicted.</t>
   </si>
   <si>
     <t>Shelley, Percy Bysshe</t>
@@ -620,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -725,173 +731,180 @@
       <c r="AF1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
+      <c r="H3" t="s"/>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
       <c r="L3" t="s"/>
       <c r="M3" t="s"/>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
+      <c r="N3" t="s"/>
       <c r="O3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s">
         <v>68</v>
       </c>
+      <c r="P3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
       <c r="V3" t="s"/>
       <c r="W3" t="s"/>
-      <c r="X3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
       <c r="Z3" t="s"/>
-      <c r="AA3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" t="s"/>
+      <c r="AA3" t="s"/>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
       <c r="AC3" t="s"/>
       <c r="AD3" t="s"/>
       <c r="AE3" t="s"/>
-      <c r="AF3" t="n">
+      <c r="AF3" t="s"/>
+      <c r="AG3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
@@ -900,58 +913,59 @@
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
+      <c r="N4" t="s"/>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s">
         <v>77</v>
       </c>
+      <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="V4" t="s">
+        <v>83</v>
+      </c>
       <c r="W4" t="s"/>
-      <c r="X4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
       <c r="Z4" t="s"/>
-      <c r="AA4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB4" t="s"/>
+      <c r="AA4" t="s"/>
+      <c r="AB4" t="s">
+        <v>84</v>
+      </c>
       <c r="AC4" t="s"/>
       <c r="AD4" t="s"/>
       <c r="AE4" t="s"/>
-      <c r="AF4" t="n">
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
@@ -960,49 +974,50 @@
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
+      <c r="N5" t="s"/>
       <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s">
         <v>86</v>
       </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
       <c r="W5" t="s"/>
-      <c r="X5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
       <c r="Z5" t="s"/>
-      <c r="AA5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB5" t="s"/>
+      <c r="AA5" t="s"/>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
       <c r="AC5" t="s"/>
       <c r="AD5" t="s"/>
       <c r="AE5" t="s"/>
-      <c r="AF5" t="n">
+      <c r="AF5" t="s"/>
+      <c r="AG5" t="n">
         <v>4</v>
       </c>
     </row>
